--- a/wait_time.xlsx
+++ b/wait_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RestroomModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EAD3EF-E67A-43B9-B355-ABB60BA20C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E50C03-6EF9-458A-8C48-C3BFA0F3875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{D5252D19-742C-4730-8D82-D4AF4B74472D}"/>
   </bookViews>
@@ -8733,6 +8733,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="309183408"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
